--- a/SchedulingData/dynamic16/pso/scheduling1_13.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_13.xlsx
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>48.2</v>
+        <v>50.3</v>
       </c>
       <c r="E2" t="n">
-        <v>26.88</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>48.2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>116.5</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
-        <v>23.64</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.86</v>
+        <v>67.2</v>
       </c>
       <c r="E4" t="n">
-        <v>26.784</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>70.09999999999999</v>
+        <v>56.9</v>
       </c>
       <c r="E5" t="n">
-        <v>27.12</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="D6" t="n">
-        <v>63.08</v>
+        <v>117.72</v>
       </c>
       <c r="E6" t="n">
-        <v>26.352</v>
+        <v>23.488</v>
       </c>
     </row>
     <row r="7">
@@ -561,131 +561,131 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63.08</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>111.48</v>
+        <v>95.2</v>
       </c>
       <c r="E7" t="n">
-        <v>22.152</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>53.86</v>
+        <v>95.2</v>
       </c>
       <c r="D8" t="n">
-        <v>108.84</v>
+        <v>149.36</v>
       </c>
       <c r="E8" t="n">
-        <v>22.416</v>
+        <v>18.524</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>86.90000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="E9" t="n">
-        <v>25.5</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>116.5</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>164.3</v>
+        <v>149.36</v>
       </c>
       <c r="D11" t="n">
-        <v>225.24</v>
+        <v>202.04</v>
       </c>
       <c r="E11" t="n">
-        <v>16.516</v>
+        <v>14.876</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>70.09999999999999</v>
+        <v>202.04</v>
       </c>
       <c r="D12" t="n">
-        <v>149.78</v>
+        <v>270.46</v>
       </c>
       <c r="E12" t="n">
-        <v>22.752</v>
+        <v>10.664</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>108.84</v>
+        <v>270.46</v>
       </c>
       <c r="D13" t="n">
-        <v>147.4</v>
+        <v>328.78</v>
       </c>
       <c r="E13" t="n">
-        <v>19.2</v>
+        <v>6.452</v>
       </c>
     </row>
     <row r="14">
@@ -694,55 +694,55 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>86.90000000000001</v>
+        <v>117.72</v>
       </c>
       <c r="D14" t="n">
-        <v>132</v>
+        <v>169.22</v>
       </c>
       <c r="E14" t="n">
-        <v>22.12</v>
+        <v>20.448</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>149.78</v>
+        <v>75.7</v>
       </c>
       <c r="D15" t="n">
-        <v>218.02</v>
+        <v>112.02</v>
       </c>
       <c r="E15" t="n">
-        <v>18.048</v>
+        <v>24.568</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>62.26</v>
+        <v>110.1</v>
       </c>
       <c r="E16" t="n">
-        <v>25.944</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="17">
@@ -751,36 +751,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>147.4</v>
+        <v>56.9</v>
       </c>
       <c r="D17" t="n">
-        <v>218.22</v>
+        <v>120.32</v>
       </c>
       <c r="E17" t="n">
-        <v>16.208</v>
+        <v>21.288</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>62.26</v>
+        <v>110.1</v>
       </c>
       <c r="D18" t="n">
-        <v>109.66</v>
+        <v>168.7</v>
       </c>
       <c r="E18" t="n">
-        <v>22.824</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="19">
@@ -789,150 +789,150 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>225.24</v>
+        <v>112.02</v>
       </c>
       <c r="D19" t="n">
-        <v>283.28</v>
+        <v>185.26</v>
       </c>
       <c r="E19" t="n">
-        <v>13.812</v>
+        <v>19.864</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>283.28</v>
+        <v>50.3</v>
       </c>
       <c r="D20" t="n">
-        <v>317.84</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>10.996</v>
+        <v>24.84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>218.02</v>
+        <v>185.26</v>
       </c>
       <c r="D21" t="n">
-        <v>279.22</v>
+        <v>242.86</v>
       </c>
       <c r="E21" t="n">
-        <v>15.528</v>
+        <v>16.744</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>218.22</v>
+        <v>169.22</v>
       </c>
       <c r="D22" t="n">
-        <v>280.8</v>
+        <v>231.8</v>
       </c>
       <c r="E22" t="n">
-        <v>12.56</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>279.22</v>
+        <v>231.8</v>
       </c>
       <c r="D23" t="n">
-        <v>355.42</v>
+        <v>275.04</v>
       </c>
       <c r="E23" t="n">
-        <v>12.488</v>
+        <v>14.096</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>317.84</v>
+        <v>120.32</v>
       </c>
       <c r="D24" t="n">
-        <v>381.06</v>
+        <v>176.38</v>
       </c>
       <c r="E24" t="n">
-        <v>6.784</v>
+        <v>17.312</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>280.8</v>
+        <v>168.7</v>
       </c>
       <c r="D25" t="n">
-        <v>352.9</v>
+        <v>227.06</v>
       </c>
       <c r="E25" t="n">
-        <v>8.960000000000001</v>
+        <v>17.304</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>132</v>
+        <v>328.78</v>
       </c>
       <c r="D26" t="n">
-        <v>209.24</v>
+        <v>403.66</v>
       </c>
       <c r="E26" t="n">
-        <v>17.976</v>
+        <v>2.084</v>
       </c>
     </row>
     <row r="27">
@@ -941,226 +941,226 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>111.48</v>
+        <v>403.66</v>
       </c>
       <c r="D27" t="n">
-        <v>165.64</v>
+        <v>481.19</v>
       </c>
       <c r="E27" t="n">
-        <v>18.356</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>381.06</v>
+        <v>481.19</v>
       </c>
       <c r="D28" t="n">
-        <v>433.96</v>
+        <v>553.59</v>
       </c>
       <c r="E28" t="n">
-        <v>2.624</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>109.66</v>
+        <v>242.86</v>
       </c>
       <c r="D29" t="n">
-        <v>151.76</v>
+        <v>293.3</v>
       </c>
       <c r="E29" t="n">
-        <v>19.744</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>355.42</v>
+        <v>275.04</v>
       </c>
       <c r="D30" t="n">
-        <v>429.5</v>
+        <v>342.04</v>
       </c>
       <c r="E30" t="n">
-        <v>9.68</v>
+        <v>10.976</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>165.64</v>
+        <v>342.04</v>
       </c>
       <c r="D31" t="n">
-        <v>219.04</v>
+        <v>397.24</v>
       </c>
       <c r="E31" t="n">
-        <v>14.636</v>
+        <v>7.596</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>151.76</v>
+        <v>227.06</v>
       </c>
       <c r="D32" t="n">
-        <v>205.18</v>
+        <v>282.8</v>
       </c>
       <c r="E32" t="n">
-        <v>15.532</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>352.9</v>
+        <v>553.59</v>
       </c>
       <c r="D33" t="n">
-        <v>448.46</v>
+        <v>607.1900000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>4.984</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>219.04</v>
+        <v>397.24</v>
       </c>
       <c r="D34" t="n">
-        <v>263.8</v>
+        <v>449.54</v>
       </c>
       <c r="E34" t="n">
-        <v>11.78</v>
+        <v>4.476</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>209.24</v>
+        <v>282.8</v>
       </c>
       <c r="D35" t="n">
-        <v>261.54</v>
+        <v>369.02</v>
       </c>
       <c r="E35" t="n">
-        <v>14.856</v>
+        <v>10.808</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>263.8</v>
+        <v>176.38</v>
       </c>
       <c r="D36" t="n">
-        <v>325.46</v>
+        <v>235.12</v>
       </c>
       <c r="E36" t="n">
-        <v>7.244</v>
+        <v>14.528</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>205.18</v>
+        <v>369.02</v>
       </c>
       <c r="D37" t="n">
-        <v>279.98</v>
+        <v>422</v>
       </c>
       <c r="E37" t="n">
-        <v>12.172</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>448.46</v>
+        <v>607.1900000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>523.66</v>
+        <v>661.17</v>
       </c>
       <c r="E38" t="n">
-        <v>2.544</v>
+        <v>20.912</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>279.98</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>360.4</v>
+        <v>123.36</v>
       </c>
       <c r="E39" t="n">
-        <v>8.74</v>
+        <v>21.624</v>
       </c>
     </row>
     <row r="40">
@@ -1188,112 +1188,112 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>433.96</v>
+        <v>293.3</v>
       </c>
       <c r="D40" t="n">
-        <v>520.3099999999999</v>
+        <v>347.76</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>11.024</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>520.3099999999999</v>
+        <v>661.17</v>
       </c>
       <c r="D41" t="n">
-        <v>566.01</v>
+        <v>720.45</v>
       </c>
       <c r="E41" t="n">
-        <v>26.62</v>
+        <v>18.104</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>261.54</v>
+        <v>422</v>
       </c>
       <c r="D42" t="n">
-        <v>316.64</v>
+        <v>484.8</v>
       </c>
       <c r="E42" t="n">
-        <v>10.476</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>325.46</v>
+        <v>347.76</v>
       </c>
       <c r="D43" t="n">
-        <v>393.24</v>
+        <v>408.6</v>
       </c>
       <c r="E43" t="n">
-        <v>4.076</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>360.4</v>
+        <v>484.8</v>
       </c>
       <c r="D44" t="n">
-        <v>404.38</v>
+        <v>558.8</v>
       </c>
       <c r="E44" t="n">
-        <v>6.452</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>523.66</v>
+        <v>558.8</v>
       </c>
       <c r="D45" t="n">
-        <v>564.6</v>
+        <v>625.4400000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -1302,169 +1302,169 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>564.6</v>
+        <v>235.12</v>
       </c>
       <c r="D46" t="n">
-        <v>660.84</v>
+        <v>291.78</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>9.992000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>429.5</v>
+        <v>449.54</v>
       </c>
       <c r="D47" t="n">
-        <v>474.1</v>
+        <v>528.64</v>
       </c>
       <c r="E47" t="n">
-        <v>6.84</v>
+        <v>1.176</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>404.38</v>
+        <v>528.64</v>
       </c>
       <c r="D48" t="n">
-        <v>474.42</v>
+        <v>603.29</v>
       </c>
       <c r="E48" t="n">
-        <v>3.548</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>393.24</v>
+        <v>123.36</v>
       </c>
       <c r="D49" t="n">
-        <v>461.89</v>
+        <v>190.8</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>461.89</v>
+        <v>603.29</v>
       </c>
       <c r="D50" t="n">
-        <v>511.01</v>
+        <v>660.37</v>
       </c>
       <c r="E50" t="n">
-        <v>25.788</v>
+        <v>26.472</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>316.64</v>
+        <v>720.45</v>
       </c>
       <c r="D51" t="n">
-        <v>358.46</v>
+        <v>770.11</v>
       </c>
       <c r="E51" t="n">
-        <v>7.924</v>
+        <v>15.248</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>358.46</v>
+        <v>190.8</v>
       </c>
       <c r="D52" t="n">
-        <v>423.36</v>
+        <v>256.52</v>
       </c>
       <c r="E52" t="n">
-        <v>3.544</v>
+        <v>14.488</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>423.36</v>
+        <v>256.52</v>
       </c>
       <c r="D53" t="n">
-        <v>467.76</v>
+        <v>349.32</v>
       </c>
       <c r="E53" t="n">
-        <v>0.244</v>
+        <v>10.288</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>467.76</v>
+        <v>408.6</v>
       </c>
       <c r="D54" t="n">
-        <v>539.27</v>
+        <v>460.46</v>
       </c>
       <c r="E54" t="n">
-        <v>30</v>
+        <v>3.484</v>
       </c>
     </row>
     <row r="55">
@@ -1473,36 +1473,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>566.01</v>
+        <v>460.46</v>
       </c>
       <c r="D55" t="n">
-        <v>615.3099999999999</v>
+        <v>502.38</v>
       </c>
       <c r="E55" t="n">
-        <v>23.32</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>474.1</v>
+        <v>502.38</v>
       </c>
       <c r="D56" t="n">
-        <v>503.7</v>
+        <v>582.22</v>
       </c>
       <c r="E56" t="n">
-        <v>4.52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
@@ -1511,93 +1511,93 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>474.42</v>
+        <v>349.32</v>
       </c>
       <c r="D57" t="n">
-        <v>533.02</v>
+        <v>401.62</v>
       </c>
       <c r="E57" t="n">
-        <v>0.308</v>
+        <v>6.688</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>533.02</v>
+        <v>625.4400000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>614.1</v>
+        <v>698.34</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>660.84</v>
+        <v>582.22</v>
       </c>
       <c r="D59" t="n">
-        <v>712.76</v>
+        <v>647.8200000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>27.008</v>
+        <v>25.62</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>614.1</v>
+        <v>291.78</v>
       </c>
       <c r="D60" t="n">
-        <v>659.1</v>
+        <v>356.56</v>
       </c>
       <c r="E60" t="n">
-        <v>26.7</v>
+        <v>5.624</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>539.27</v>
+        <v>647.8200000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>617.67</v>
+        <v>701.52</v>
       </c>
       <c r="E61" t="n">
-        <v>25.8</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="62">
@@ -1606,71 +1606,71 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>617.67</v>
+        <v>660.37</v>
       </c>
       <c r="D62" t="n">
-        <v>679.67</v>
+        <v>701.87</v>
       </c>
       <c r="E62" t="n">
-        <v>22.72</v>
+        <v>23.952</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>511.01</v>
+        <v>401.62</v>
       </c>
       <c r="D63" t="n">
-        <v>572.49</v>
+        <v>471.22</v>
       </c>
       <c r="E63" t="n">
-        <v>22.26</v>
+        <v>3.308</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>503.7</v>
+        <v>356.56</v>
       </c>
       <c r="D64" t="n">
-        <v>570.42</v>
+        <v>429.76</v>
       </c>
       <c r="E64" t="n">
-        <v>0.488</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>570.42</v>
+        <v>429.76</v>
       </c>
       <c r="D65" t="n">
-        <v>651.34</v>
+        <v>513.51</v>
       </c>
       <c r="E65" t="n">
         <v>30</v>
@@ -1678,40 +1678,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>615.3099999999999</v>
+        <v>471.22</v>
       </c>
       <c r="D66" t="n">
-        <v>713.97</v>
+        <v>536.5</v>
       </c>
       <c r="E66" t="n">
-        <v>19.524</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>713.97</v>
+        <v>536.5</v>
       </c>
       <c r="D67" t="n">
-        <v>753.11</v>
+        <v>620.76</v>
       </c>
       <c r="E67" t="n">
-        <v>16.74</v>
+        <v>26.204</v>
       </c>
     </row>
   </sheetData>
